--- a/data/trans_camb/P32B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 7,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 3,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; -0,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 3,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 2,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 12,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 5,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 2,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 4,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>342,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>171,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,94%</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,25; 1994,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,51; 1030,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,26; 576,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,81; 613,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,65; 279,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,96; 501,89</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 4,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 4,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 7,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 1,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 3,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 1,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 3,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 3,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 4,93</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>451,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>495,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>581,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>238,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>325,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>275,64%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,05; 2156,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,26; 2293,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,33; 4018,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,1; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,45; 994,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,37; 1307,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,7; 1333,47</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 4,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 2,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 2,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 0,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 3,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 2,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 1,9</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>536,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>291,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>198,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>337,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>206,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,45%</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,85; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,37; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,14; 1725,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,22; 1750,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,39; inf</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 3,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 4,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 3,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 1,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 2,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 1,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 2,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 2,07</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>296,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>573,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>386,23%</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,53; 1,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 1,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 3,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,93; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,9; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 4,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 0,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,43; 0,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; 2,56</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,22%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,92%</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 238,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,84; 133,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,06; 280,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 109,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,44; 66,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,58; 186,46</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 5,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 1,37</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 2,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 4,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 0,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 1,58</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>425,71%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>29,96%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>205,1%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>380,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,58%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 3,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 2,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 2,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 0,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,86</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 1,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 1,89</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 1,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 1,57</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>250,74%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,4%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,68%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,13%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,89%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,44%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>101,96; 595,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,35; 435,98</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,94; 402,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,42; 105,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,05; 180,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,51; 284,79</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,84; 276,78</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,33; 213,81</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 232,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -0,18</t>
+          <t>-3,4; -0,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 12,0</t>
+          <t>-2,03; 11,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,02</t>
+          <t>-1,77; 3,25</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-91,82%</t>
+          <t>-92,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>-3,76%</t>
         </is>
       </c>
     </row>
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-93,96; 501,89</t>
+          <t>-93,77; 456,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,89</t>
+          <t>1,09; 9,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,48</t>
+          <t>-1,89; 1,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,93</t>
+          <t>0,47; 6,04</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>581,48%</t>
+          <t>710,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,39%</t>
+          <t>-36,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>275,64%</t>
+          <t>349,79%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 4018,75</t>
+          <t>-0,9; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 1333,47</t>
+          <t>4,88; 1646,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,29</t>
+          <t>-0,59; 2,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,08</t>
+          <t>-0,6; 2,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,9</t>
+          <t>-0,26; 1,86</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>103,8%</t>
+          <t>103,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>198,93%</t>
+          <t>186,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>137,45%</t>
+          <t>131,91%</t>
         </is>
       </c>
     </row>
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,39; inf</t>
+          <t>-73,59; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,17</t>
+          <t>0,35; 3,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 2,02</t>
+          <t>-2,54; 1,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,07</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>386,23%</t>
+          <t>367,37%</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 3,5</t>
+          <t>-3,74; 3,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,01</t>
+          <t>-3,2; 3,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,56</t>
+          <t>-2,9; 2,59</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 280,57</t>
+          <t>-65,66; 262,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 186,46</t>
+          <t>-60,6; 197,62</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,22 +1737,22 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 5,9</t>
+          <t>0,63; 7,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,37</t>
+          <t>0,0; 2,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,33</t>
+          <t>0,44; 3,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 4,4</t>
+          <t>0,46; 5,82</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,95</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,58</t>
+          <t>0,06; 1,7</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>425,71%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>205,1%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1848,17 +1848,17 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>380,7%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>159,58%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,07</t>
+          <t>-2,76; 10,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,14</t>
+          <t>-4,84; 1,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,05</t>
+          <t>-4,27; 3,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,72</t>
+          <t>0,0; 8,0</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,89</t>
+          <t>-2,22; 8,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,4</t>
+          <t>-4,86; 1,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,57</t>
+          <t>-2,93; 2,93</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>250,74%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>158,4%</t>
+          <t>-39,17%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>130,68%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-34,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>138,89%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>-46,09%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>56,15%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 3,07</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 2,14</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 2,18</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 0,43</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 0,86</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 1,42</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 1,89</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 1,4</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 1,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>250,74%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>158,4%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>140,34%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-34,13%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-1,55%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>26,39%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>138,89%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>92,89%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>92,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>101,96; 595,01</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>50,35; 435,98</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>18,94; 402,1</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>19,43; 420,38</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-79,42; 105,04</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-59,05; 180,05</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-38,51; 284,79</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-50,07; 238,79</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>38,84; 276,78</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>20,33; 213,81</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>14,49; 232,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>12,34; 230,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P32B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,11</t>
+          <t>1,59; 7,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,94</t>
+          <t>-0,89; 3,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -0,19</t>
+          <t>-3,31; -0,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,97</t>
+          <t>-2,52; 3,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,42</t>
+          <t>-3,75; 2,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 11,31</t>
+          <t>-2,28; 11,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,13</t>
+          <t>0,81; 4,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,46</t>
+          <t>-1,29; 2,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,25</t>
+          <t>-1,77; 3,4</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,25; 1994,35</t>
+          <t>12,17; 1783,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-76,51; 1030,17</t>
+          <t>-68,33; 1004,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,26; 576,38</t>
+          <t>-73,42; 504,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,81; 613,11</t>
+          <t>23,5; 722,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 279,84</t>
+          <t>-57,72; 338,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-93,77; 456,47</t>
+          <t>-93,72; 423,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,86</t>
+          <t>0,95; 4,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,86</t>
+          <t>1,2; 5,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,6</t>
+          <t>1,03; 9,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,19</t>
+          <t>-2,3; 1,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,43</t>
+          <t>-1,0; 3,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,4</t>
+          <t>-1,91; 1,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,04</t>
+          <t>0,45; 3,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,91</t>
+          <t>0,85; 3,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,04</t>
+          <t>0,38; 5,76</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,05; 2156,58</t>
+          <t>35,97; 2487,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,26; 2293,01</t>
+          <t>78,87; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; —</t>
+          <t>15,69; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,1; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,45; 994,09</t>
+          <t>16,3; 1076,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,37; 1307,43</t>
+          <t>56,96; 1723,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 1646,14</t>
+          <t>13,5; 1950,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,44</t>
+          <t>0,83; 4,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,94</t>
+          <t>-0,04; 2,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,26</t>
+          <t>-0,48; 2,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,78</t>
+          <t>-1,4; 0,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,47</t>
+          <t>-1,14; 1,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,94</t>
+          <t>-0,5; 2,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,83</t>
+          <t>0,52; 3,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,06</t>
+          <t>0,04; 2,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,86</t>
+          <t>-0,25; 1,94</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,85; —</t>
+          <t>28,69; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,37; —</t>
+          <t>-52,69; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,14; 1725,35</t>
+          <t>13,33; 1602,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 1750,09</t>
+          <t>-18,8; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,59; —</t>
+          <t>-62,85; 1296,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,33</t>
+          <t>0,53; 3,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,68</t>
+          <t>0,98; 4,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,06</t>
+          <t>0,34; 2,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 0,0</t>
+          <t>-3,3; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,66</t>
+          <t>-2,43; 1,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,93</t>
+          <t>-2,25; 1,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,79</t>
+          <t>-0,08; 1,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,94</t>
+          <t>0,38; 2,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,05; 2,15</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,6</t>
+          <t>-5,57; 1,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 1,32</t>
+          <t>-5,58; 1,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,43</t>
+          <t>-4,44; 3,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,0</t>
+          <t>-6,91; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 0,0</t>
+          <t>-6,91; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,95</t>
+          <t>-3,66; 3,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,62</t>
+          <t>-4,33; 0,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,41</t>
+          <t>-4,64; 0,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,59</t>
+          <t>-2,66; 2,75</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 238,72</t>
+          <t>-95,58; 225,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-90,84; 133,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-65,66; 262,75</t>
+          <t>-69,49; 212,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 109,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-91,44; 66,4</t>
+          <t>-93,5; 51,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,6; 197,62</t>
+          <t>-54,06; 211,54</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,7</t>
+          <t>0,64; 7,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,95</t>
+          <t>0,0; 2,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,06</t>
+          <t>0,51; 3,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,82</t>
+          <t>0,45; 5,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 1,62</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,7</t>
+          <t>0,07; 1,66</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 10,62</t>
+          <t>-2,8; 9,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,69</t>
+          <t>-5,33; 1,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 3,24</t>
+          <t>-4,12; 2,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,22 +2006,22 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,0</t>
+          <t>0,0; 8,18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 8,18</t>
+          <t>-2,22; 9,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 1,21</t>
+          <t>-4,57; 1,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,93</t>
+          <t>-3,25; 2,73</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,07</t>
+          <t>1,13; 2,86</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,14</t>
+          <t>0,57; 2,09</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,18</t>
+          <t>0,36; 2,13</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,43</t>
+          <t>-1,34; 0,4</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,86</t>
+          <t>-0,98; 0,83</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,42</t>
+          <t>-0,8; 1,39</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,89</t>
+          <t>0,63; 1,96</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,4</t>
+          <t>0,27; 1,4</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,52</t>
+          <t>0,11; 1,57</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>101,96; 595,01</t>
+          <t>91,38; 537,71</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>50,35; 435,98</t>
+          <t>40,23; 377,81</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>19,43; 420,38</t>
+          <t>21,08; 381,53</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-79,42; 105,04</t>
+          <t>-81,27; 79,7</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 180,05</t>
+          <t>-63,65; 154,89</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 238,79</t>
+          <t>-50,68; 231,18</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>38,84; 276,78</t>
+          <t>46,47; 284,25</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>20,33; 213,81</t>
+          <t>17,34; 215,81</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>12,34; 230,81</t>
+          <t>5,11; 233,72</t>
         </is>
       </c>
     </row>
